--- a/frontend-cemos/public/assets/content/direito/5-protocolo-I/script/fc1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/5-protocolo-I/script/fc1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Em que data e local a Carta das Nações Unidas foi assinada?</t>
+          <t>Qual o compromisso das Altas Partes Contratantes em relação ao Protocolo I?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Em São Francisco, a 26 de junho de 1945.</t>
+          <t>Respeitar e fazer respeitar o presente Protocolo em todas as circunstâncias.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -489,24 +489,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é o primeiro propósito das Nações Unidas, conforme o Artigo 1?</t>
+          <t>O que acontece com pessoas civis e combatentes nos casos não previstos no Protocolo I ou em outros acordos internacionais?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manter a paz e a segurança internacionais e tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir atos de agressão.</t>
+          <t>Permanecem sob a proteção e o domínio dos princípios do Direito Internacional derivado dos costumes estabelecidos, dos princípios de humanidade e dos ditames da consciência pública.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -517,24 +517,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é o objetivo da cooperação internacional que as Nações Unidas buscam resolver?</t>
+          <t>Quais situações de conflitos armados são compreendidas para a aplicação do Protocolo I (além do Artigo 2 comum às Convenções)?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Problemas internacionais de caráter econômico, social, cultural ou humanitário, e promover o respeito aos direitos humanos e às liberdades fundamentais.</t>
+          <t>Aquelas nas quais os povos lutam contra a dominação colonial, a ocupação estrangeira e regimes racistas, no exercício do direito de livre determinação.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -545,24 +545,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é o princípio fundamental que rege a Organização e seus Membros, conforme o Artigo 2 (1)?</t>
+          <t>Que tratamento deve ser dado aos veículos sanitários sob o Protocolo I (Artigo 21)?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>Serão respeitados e protegidos da mesma forma prevista nas Convenções e no presente Protocolo para as unidades sanitárias móveis.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -573,24 +573,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a obrigação dos Membros da ONU referente ao uso da força em suas relações internacionais?</t>
+          <t>As disposições das Convenções sobre navios-hospitais e embarcações de salvamento aplicam-se a quais pessoas civis a bordo?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
+          <t>Feridos, enfermos e náufragos civis que não pertençam às categorias mencionadas no Artigo 13 da Segunda Convenção.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -601,24 +601,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Em que situação o princípio de não intervenção da Carta nas jurisdições internas dos Estados não se aplica?</t>
+          <t>A quem a proteção de navios-hospitais (Art. 25 da Segunda Convenção) se estende quando colocados à disposição de uma Parte em conflito?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
+          <t>A navios-hospitais cedidos por um Estado neutro/não Parte no conflito ou por uma organização internacional humanitária e imparcial, cumprindo os requisitos estabelecidos.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -629,24 +629,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>De quantos membros é composto o Conselho de Segurança das Nações Unidas?</t>
+          <t>Como os navios e embarcações sanitárias, diferentes dos navios-hospitais (Art. 22 e Art. 38 da Segunda Convenção), devem ser tratados?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>De quinze Membros das Nações Unidas.</t>
+          <t>Serão respeitados e protegidos da mesma forma prevista nas Convenções e no presente Protocolo para as unidades sanitárias móveis.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -657,24 +657,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quais são os cinco membros permanentes do Conselho de Segurança, segundo o Artigo 23?</t>
+          <t>Os navios e embarcações sanitárias (diferentes dos navios-hospitais) podem ser desviados de sua missão?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América.</t>
+          <t>Não poderão ser desviados de sua missão sanitária enquanto sejam necessários para os feridos, enfermos e náufragos que se encontram a bordo.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -685,24 +685,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Por quanto tempo os membros não permanentes do Conselho de Segurança são eleitos?</t>
+          <t>Em que condições a proteção outorgada aos navios sanitários (Artigo 23, parágrafo 1) cessa?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Por um período de dois anos.</t>
+          <t>Somente nas condições estabelecidas nos Artigos 34 e 35 da Segunda Convenção.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -713,679 +713,1351 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual é a principal responsabilidade conferida ao Conselho de Segurança pelos Membros da ONU?</t>
+          <t>Qual a proteção devida às aeronaves sanitárias?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A manutenção da paz e da segurança internacionais.</t>
+          <t>Serão respeitadas e protegidas em conformidade com as disposições do Título III do presente Protocolo.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com quais elementos da Organização?</t>
+          <t>O que é proibido em relação ao emprego de métodos e meios de combate (Artigo 35)?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>De acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>É proibido o emprego de armas, projéteis, materiais e métodos de combate que causem males supérfluos, sofrimentos desnecessários, ou danos extensos, duradouros e graves ao meio ambiente natural.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O que os Membros das Nações Unidas concordam em fazer em relação às decisões do Conselho de Segurança, conforme o Artigo 25?</t>
+          <t>O que constitui um ato de perfídia nos conflitos armados, de acordo com o Artigo 37?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
+          <t>Atos que, apelando para a boa fé de um adversário com intenção de atraiçoá-lo, dão a entender que se tem direito à proteção, ou que está obrigado a concedê-la.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantos votos cada membro do Conselho de Segurança possui?</t>
+          <t>Qual é a proibição fundamental relativa aos emblemas distintivos (Cruz Vermelha, Crescente Vermelho, etc.)?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Um voto.</t>
+          <t>É proibido fazer uso indevido desses emblemas, símbolos ou sinais estabelecidos nas Convenções e no presente Protocolo.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quantos votos afirmativos são necessários para tomar decisões do Conselho de Segurança em questões processuais?</t>
+          <t>O que é proibido fazer com bandeiras, emblemas ou uniformes de Partes adversas?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nove Membros.</t>
+          <t>É proibido usá-los durante os ataques, ou para cobrir, favorecer, proteger ou impedir operações militares.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual a condição de voto para que as decisões do Conselho de Segurança sejam tomadas em "todos os outros assuntos" (não processuais)?</t>
+          <t>Que tipo de ordem ou ameaça é proibida pelo Artigo 40 (Guarida)?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
+          <t>É proibido ordenar que não haja sobreviventes, ameaçar com isto o adversário ou conduzir as hostilidades em função de tal decisão.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Quais são alguns dos meios pacíficos que as partes em uma controvérsia devem buscar para uma solução, conforme o Capítulo VI?</t>
+          <t>Quem são os combatentes, de acordo com o Artigo 43 do Protocolo I?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Negociação, inquérito, mediação, conciliação, arbitragem ou solução judicial.</t>
+          <t>Os membros das Forças Armadas de uma Parte em conflito (exceto pessoal sanitário e religioso) que têm direito a participar diretamente das hostilidades.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança pode fazer para determinar se uma controvérsia é uma ameaça à paz?</t>
+          <t>Qual é a obrigação dos combatentes para promover a proteção da população civil (Art. 44, parágrafo 3)?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Poderá investigar sobre qualquer controvérsia ou situação suscetível de provocar atritos entre as Nações.</t>
+          <t>Distinguir-se da população civil no curso de um ataque ou de uma operação militar preparatória de um ataque.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qual é a finalidade do Artigo 33, que trata da solução pacífica de controvérsias?</t>
+          <t>Em situações em que um combatente armado não pode distinguir-se, quando ele deve portar suas armas abertamente?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Assegurar que as controvérsias não constituam uma ameaça à paz e à segurança internacionais.</t>
+          <t>Durante cada engajamento militar e durante o tempo em que seja visível para o inimigo em deslocamento militar que antecede um ataque do qual irá participar.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança determina em primeiro lugar sob o Capítulo VII, conforme o Artigo 39?</t>
+          <t>O que se presume sobre uma pessoa que toma parte nas hostilidades e cai em poder de uma Parte adversa?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
+          <t>Será presumida prisioneiro de guerra e, consequentemente, estará protegida pela Terceira Convenção.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança pode convidar as partes interessadas a aceitar, conforme o Artigo 40, a fim de evitar que a situação se agrave?</t>
+          <t>O que acontece se houver dúvida sobre o direito de uma pessoa ao estatuto de prisioneiro de guerra?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Medidas provisórias que lhe pareçam necessárias ou aconselháveis.</t>
+          <t>Continuará protegida pela Terceira Convenção e pelo Protocolo I até que um tribunal competente tenha decidido a esse respeito.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Quais tipos de sanções o Conselho de Segurança pode impor sob o Artigo 41, sem o emprego de forças armadas?</t>
+          <t>Que direito tem uma pessoa que tomou parte nas hostilidades e não tem direito ao estatuto de prisioneiro de guerra?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Interrupção completa ou parcial das relações econômicas, dos meios de comunicação (ferroviários, marítimos, aéreos, etc.) e o rompimento das relações diplomáticas.</t>
+          <t>Terá sempre direito à proteção do Artigo 75 deste Protocolo.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Quando o Conselho de Segurança pode levar a efeito uma ação militar (forças aéreas, navais ou terrestres)?</t>
+          <t>O membro das Forças Armadas que realiza espionagem tem direito ao estatuto de prisioneiro de guerra se cair em poder da Parte adversa?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No caso de considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas.</t>
+          <t>Não, ele não terá direito ao estatuto de prisioneiro de guerra e poderá ser tratado como espião.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O que as ações militares sob o Artigo 42 podem compreender?</t>
+          <t>Quando um membro das Forças Armadas que recolhe informação em território adversário não será considerado espião?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
+          <t>Sempre que, ao fazê-lo, envergue o uniforme das Forças Armadas a que pertence.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Qual é o compromisso dos Membros das Nações Unidas para a manutenção da paz, conforme o Artigo 43?</t>
+          <t>Os mercenários têm direito ao estatuto de combatente ou de prisioneiro de guerra?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Proporcionar ao Conselho de Segurança, a seu pedido e de conformidade com acordos especiais, forças armadas, assistência e facilidades, inclusive direitos de passagem.</t>
+          <t>Não, os mercenários não terão direito ao estatuto de combatente ou de prisioneiro de guerra.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O que deve ser determinado no acordo ou acordos especiais entre o Conselho de Segurança e os Membros?</t>
+          <t>Qual é a norma fundamental que as Partes em conflito devem observar para proteger a população e os bens civis?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O número e tipo das forças, seu grau de preparação e sua localização geral, bem como a natureza das facilidades e da assistência.</t>
+          <t>Fazer distinção entre a população civil e os combatentes, entre bens civis e objetivos militares, dirigindo operações unicamente contra os objetivos militares.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Quem o Conselho deve convidar a participar das decisões, antes de solicitar forças armadas a um Membro nele não representado?</t>
+          <t>O que se entende por "ataques" no contexto do Protocolo I (Artigo 49)?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O referido Membro, se este assim o desejar.</t>
+          <t>Os atos de violência contra o adversário, sejam ofensivos ou defensivos.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Qual a finalidade de os Membros da ONU manterem contingentes das forças aéreas nacionais imediatamente utilizáveis, conforme o Artigo 45?</t>
+          <t>A quais operações de guerra se aplicam as disposições relativas à proteção da população civil em terra (Seção I do Título IV)?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
+          <t>A qualquer operação de guerra terrestre, naval ou aérea que possa afetar em terra à população civil, às pessoas civis e aos bens de caráter civil.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Qual é o papel da Comissão de Estado Maior, conforme o Artigo 47?</t>
+          <t>Quem é considerado uma pessoa civil?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças, regulamentação de armamentos e desarmamento.</t>
+          <t>Qualquer pessoa que não pertença às categorias de pessoas mencionadas no Artigo 4 (A) da Terceira Convenção e no Artigo 43 do Protocolo. Em caso de dúvida, ela será considerada como civil.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Quem compõe a Comissão de Estado Maior?</t>
+          <t>Em quais condições as pessoas civis perdem a proteção outorgada pela Seção I do Título IV?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Os Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+          <t>Se participam diretamente das hostilidades e enquanto durar tal participação.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Quem levará a efeito a ação necessária ao cumprimento das decisões do Conselho de Segurança para a manutenção da paz?</t>
+          <t>O que são ataques indiscriminados, conforme a definição do Protocolo I?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Todos os Membros das Nações Unidas ou alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
+          <t>Ataques que não são dirigidos contra um objetivo militar específico, ou que usam métodos/meios que não podem ser direcionados a um objetivo específico, ou cujos efeitos não se pode limitar, podendo atingir indistintamente civis e bens civis.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O que os Membros das Nações Unidas devem fazer para a execução das medidas determinadas pelo Conselho de Segurança, conforme o Artigo 49?</t>
+          <t>O que são bens de caráter civil?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Prestar assistência mútua.</t>
+          <t>Todos os bens que não são objetivos militares, conforme definido no parágrafo 2 do Artigo 52.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O que a Carta da ONU preserva em relação ao uso da força, conforme o Artigo 51?</t>
+          <t>O que são objetivos militares no que concerne aos bens?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
+          <t>Objetos que por sua natureza, localização, finalidade ou utilização contribuam eficazmente para a ação militar ou cuja destruição, captura ou neutralização ofereça uma vantagem militar definida.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Até quando o direito de legítima defesa individual ou coletiva é preservado?</t>
+          <t>Quais ações são proibidas contra monumentos históricos, obras de arte ou lugares de culto (bens culturais)?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
+          <t>Cometer atos de hostilidade dirigidos contra eles, utilizá-los em apoio ao esforço militar, ou fazer deles objeto de represália.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Qual método de combate é proibido em relação à população civil?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fazer padecer de fome as pessoas civis.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>É permitido atacar bens indispensáveis à sobrevivência da população civil, como gêneros alimentícios e instalações de água potável?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Não, é proibido atacar, destruir, remover ou inutilizar tais bens com a deliberada intenção de privar a população civil ou a Parte adversa desses meios de subsistência.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>O que é proibido em relação ao meio ambiente natural durante a guerra?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Empregar métodos ou meios de combate que causem danos extensos, de longa duração e graves ao meio ambiente natural, comprometendo a saúde ou a sobrevivência da população.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Que obras e instalações que contêm forças perigosas não serão objeto de ataque?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Diques, represas e centrais nucleares de energia elétrica, quando tais ataques possam produzir liberação de forças perigosas e causar perdas severas na população civil.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Em que caso a proteção especial para represas ou diques cessa (Art. 56)?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Se forem utilizados em apoio regular, significativo e direto às operações militares, e se o ataque for o único meio viável de pôr fim a tal apoio.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Como as Partes em conflito podem marcar os bens protegidos pelo Artigo 56 (obras com forças perigosas)?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Com um sinal especial consistindo em um grupo de três círculos cor laranja brilhante colocados ao longo de um mesmo eixo.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>O que é necessário verificar ao planejar ou decidir um ataque?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Que os objetivos não são pessoas civis, nem bens de caráter civil, nem gozam proteção especial, e que se trata de objetivos militares cuja destruição não é proibida.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Quando um ataque deve ser cancelado ou suspenso?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Se o objetivo não é militar ou goza de proteção especial, ou se é previsível que causará perdas civis ou danos a bens civis que seriam excessivos em relação à vantagem militar prevista.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Quais precauções as Partes em conflito devem tomar para proteger a população civil contra os perigos resultantes de operações militares?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Esforçar-se para remover civis e bens civis das proximidades de objetivos militares, e evitar situar objetivos militares no interior ou nas proximidades de zonas densamente povoadas.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Qual a proibição fundamental em relação às localidades não defendidas?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>É proibido às Partes em conflito atacar, por quaisquer meios, localidades não defendidas.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Quais são as condições essenciais para que um lugar habitado aberto à ocupação seja declarado localidade não defendida?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Combatentes/armas/material militar móveis evacuados; sem uso hostil de instalações fixas; sem atos de hostilidades pela população/autoridades; sem atividade em apoio a operações militares.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>A presença de quais pessoas na localidade não defendida não contraria as condições de proteção?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pessoas especialmente protegidas pelas Convenções e pelo Protocolo, e forças policiais retidas com a única finalidade de manter a ordem pública.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Qual proibição se aplica às Partes em conflito em relação às zonas desmilitarizadas?</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>É proibido estender suas operações militares a essas zonas se tal extensão é contrária ao estipulado no acordo.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Pág 16</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Como deve ser o acordo para conferir a condição de zona desmilitarizada?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Deve ser expresso (verbal ou escrito), definindo e indicando, com a maior precisão possível, os limites da zona.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>O que acontece se uma das Partes em conflito viola gravemente as disposições de uma zona desmilitarizada?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Libera a outra Parte das obrigações que emanam do acordo, porém, a zona continua gozando da proteção prevista pelas demais disposições do Protocolo e outras normas de Direito Internacional.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Que facilidades as Partes em conflito devem dar ao Comitê Internacional da Cruz Vermelha (CICV)?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Todas as facilidades que lhes seja possível outorgar para que possa desempenhar as tarefas humanitárias atribuídas pelas Convenções e pelo Protocolo.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Além das tarefas atribuídas pelas Convenções, o que mais o CICV pode fazer em favor das vítimas?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Exercer qualquer outra atividade humanitária, com o consentimento prévio das Partes em conflito interessadas.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sob quais condições outras organizações humanitárias receberão facilidades análogas às da Cruz Vermelha?</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Se estiverem devidamente autorizadas pelas Partes em conflito e exercerem suas atividades humanitárias de acordo com as disposições das Convenções e do Protocolo.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Quais são as pessoas protegidas pelo Protocolo I, se sofrerem infrações graves cometidas pela Parte adversa (Art. 85, parágrafo 2)?</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Pessoas em poder da Parte adversa protegidas pelos Artigos 44, 45 e 73, ou feridos, enfermos ou náufragos da Parte adversa, ou pessoal/unidades/transportes sanitários sob controle da Parte adversa.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>O que é uma infração grave relacionada a ataques, quando cometida intencionalmente e com conhecimento de causar perdas civis excessivas?</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Lançar um ataque indiscriminado ou um ataque contra obras e instalações que contenham forças perigosas.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Além das infrações graves relativas a ataques, o que constitui uma infração grave relacionada a territórios ocupados?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A transferência pela Potência ocupante de parte de sua própria população civil ao território que ocupa, ou a deportação/transferência da população desse território.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>O que as Altas Partes Contratantes devem fazer em relação às infrações?</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Reprimir as infrações graves e adotar as medidas necessárias para fazer com que cessem todas as demais infrações resultantes do não cumprimento de um dever de agir.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>O fato de a infração ter sido cometida por um subordinado exime o superior de responsabilidade?</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Não, se os superiores sabiam ou podiam concluir que o subordinado cometeria a infração e não tomaram todas as medidas visíveis ao seu alcance para impedi-la ou reprimi-la.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Qual é o dever fundamental dos comandantes militares em relação às Forças Armadas sob suas ordens?</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Impedir as infrações às Convenções e ao Protocolo I e, caso necessário, reprimi-las e denunciá-las às autoridades competentes.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Protocolo I</t>
         </is>
       </c>
     </row>
